--- a/8051串列傳輸鮑率計算.xlsx
+++ b/8051串列傳輸鮑率計算.xlsx
@@ -42178,7 +42178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Baud Rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42245,10 +42245,6 @@
   </si>
   <si>
     <t>參照 Baud Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42398,7 +42394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -42448,9 +42444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -42809,7 +42802,7 @@
   <dimension ref="A2:N257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -42861,8 +42854,9 @@
         <f>HEX2DEC(B14)</f>
         <v>250</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>17</v>
+      <c r="I3" s="17" t="str">
+        <f t="shared" ref="I3:I67" si="0">DEC2HEX(H3,2)</f>
+        <v>FA</v>
       </c>
       <c r="J3" s="6">
         <f>(((2^$E$14)*($F$14*1000000))/(384*(256-H3)))</f>
@@ -42893,7 +42887,7 @@
         <v>249</v>
       </c>
       <c r="I4" s="6" t="str">
-        <f t="shared" ref="I4:I67" si="0">DEC2HEX(H4,2)</f>
+        <f t="shared" si="0"/>
         <v>F9</v>
       </c>
       <c r="J4" s="6">
@@ -43261,8 +43255,8 @@
         <f>256-C14</f>
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <f>HEX2DEC(B14)</f>
@@ -43382,11 +43376,11 @@
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
@@ -43422,11 +43416,11 @@
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="2">
         <f>((D14-D10)/D10)*100</f>
         <v>0</v>
